--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\TamuCollege\CSCE314\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF98553-D790-4332-B4F5-6B6A5928E201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520F7A2-D76C-409E-9045-FA3AEDBA87CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
@@ -63,18 +63,12 @@
     <t>Transaction</t>
   </si>
   <si>
-    <t>- seed : String</t>
-  </si>
-  <si>
     <t>Transaction()</t>
   </si>
   <si>
     <t>Leaf()</t>
   </si>
   <si>
-    <t>+ setTransaction() : void</t>
-  </si>
-  <si>
     <t>+ getTransaction() : String</t>
   </si>
   <si>
@@ -124,6 +118,21 @@
   </si>
   <si>
     <t>- content : Transaction</t>
+  </si>
+  <si>
+    <t>- fromWallet : String</t>
+  </si>
+  <si>
+    <t>- toWallet : String</t>
+  </si>
+  <si>
+    <t>- amoutn : double</t>
+  </si>
+  <si>
+    <t>+ ToString() : String</t>
+  </si>
+  <si>
+    <t>+ printLog() : String</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +241,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -679,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
-  <dimension ref="E2:H36"/>
+  <dimension ref="E2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,67 +740,67 @@
     </row>
     <row r="10" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E18" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E22" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.3">
@@ -801,61 +813,69 @@
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520F7A2-D76C-409E-9045-FA3AEDBA87CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1927A-52C1-454E-9D52-B588936E2515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -126,13 +126,13 @@
     <t>- toWallet : String</t>
   </si>
   <si>
-    <t>- amoutn : double</t>
-  </si>
-  <si>
     <t>+ ToString() : String</t>
   </si>
   <si>
     <t>+ printLog() : String</t>
+  </si>
+  <si>
+    <t>- amount : double</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
   <dimension ref="E2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +840,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/491c000d634456ab/Documents/GitHub/MerkleTree314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1927A-52C1-454E-9D52-B588936E2515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{03C1927A-52C1-454E-9D52-B588936E2515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98A5E4E9-9D3D-4354-811A-401C674B97F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
+    <workbookView xWindow="5740" yWindow="2867" windowWidth="15293" windowHeight="8473" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
@@ -90,18 +81,12 @@
     <t>+ getSize() : int</t>
   </si>
   <si>
-    <t>+ getMd5() : String</t>
-  </si>
-  <si>
     <t>+ log2() : int</t>
   </si>
   <si>
     <t>+ ispowoftwo() : bool</t>
   </si>
   <si>
-    <t>- crypto() : void</t>
-  </si>
-  <si>
     <t>+ updateHash() : String</t>
   </si>
   <si>
@@ -133,6 +118,9 @@
   </si>
   <si>
     <t>- amount : double</t>
+  </si>
+  <si>
+    <t>+calcHash() : String</t>
   </si>
 </sst>
 </file>
@@ -693,157 +681,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
   <dimension ref="E2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" hidden="1" x14ac:dyDescent="0.5">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E29" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E33" s="5" t="s">
         <v>15</v>
       </c>
@@ -851,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
@@ -859,22 +845,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.5">
       <c r="E37" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/491c000d634456ab/Documents/GitHub/MerkleTree314/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{03C1927A-52C1-454E-9D52-B588936E2515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98A5E4E9-9D3D-4354-811A-401C674B97F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328B86F-5B31-4F3C-B4CC-28F3BD020C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="2867" windowWidth="15293" windowHeight="8473" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
   <si>
-    <t>Leaf</t>
-  </si>
-  <si>
-    <t>- size : int</t>
-  </si>
-  <si>
     <t>- hash : String</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
     <t>- rightTree : MTree</t>
   </si>
   <si>
-    <t>+ MTree</t>
-  </si>
-  <si>
     <t>Transaction</t>
   </si>
   <si>
@@ -66,12 +66,6 @@
     <t>+ printTree() : void</t>
   </si>
   <si>
-    <t xml:space="preserve">+ updateHash() : void </t>
-  </si>
-  <si>
-    <t>+ getHash() : Transaction</t>
-  </si>
-  <si>
     <t>+ ismaxed() : bool</t>
   </si>
   <si>
@@ -102,25 +96,43 @@
     <t>+ getHash() : String</t>
   </si>
   <si>
-    <t>- content : Transaction</t>
-  </si>
-  <si>
     <t>- fromWallet : String</t>
   </si>
   <si>
     <t>- toWallet : String</t>
   </si>
   <si>
-    <t>+ ToString() : String</t>
-  </si>
-  <si>
-    <t>+ printLog() : String</t>
-  </si>
-  <si>
     <t>- amount : double</t>
   </si>
   <si>
     <t>+calcHash() : String</t>
+  </si>
+  <si>
+    <t>FileIO</t>
+  </si>
+  <si>
+    <t>+ ReadFileTransactions(): void</t>
+  </si>
+  <si>
+    <t>+ WriteFileTransactions(): void</t>
+  </si>
+  <si>
+    <t>- content : T</t>
+  </si>
+  <si>
+    <t>Leaf&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>+ printLog() : void</t>
+  </si>
+  <si>
+    <t>+ addleaves() : void</t>
+  </si>
+  <si>
+    <t>Mtree()</t>
+  </si>
+  <si>
+    <t>+ toString() : String</t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +244,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -281,69 +299,6 @@
         <a:xfrm rot="16200000">
           <a:off x="3187065" y="4330065"/>
           <a:ext cx="887730" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 30000"/>
-            <a:gd name="adj2" fmla="val 60000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>594359</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Arrow: Right 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547B4D47-CA63-436E-B8E5-DA8EF8B7EBFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4747259" y="5061585"/>
-          <a:ext cx="1173480" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -679,186 +634,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
-  <dimension ref="E2:H37"/>
+  <dimension ref="E2:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="33.234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.76171875" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
+    <col min="9" max="10" width="2.109375" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E8" s="6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E9" s="4" t="s">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" hidden="1" x14ac:dyDescent="0.5">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E18" s="5" t="s">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">
         <v>29</v>
       </c>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328B86F-5B31-4F3C-B4CC-28F3BD020C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4289EEC-785A-4481-8EC1-A1F5F3C93965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
@@ -96,27 +96,12 @@
     <t>+ getHash() : String</t>
   </si>
   <si>
-    <t>- fromWallet : String</t>
-  </si>
-  <si>
-    <t>- toWallet : String</t>
-  </si>
-  <si>
-    <t>- amount : double</t>
-  </si>
-  <si>
     <t>+calcHash() : String</t>
   </si>
   <si>
     <t>FileIO</t>
   </si>
   <si>
-    <t>+ ReadFileTransactions(): void</t>
-  </si>
-  <si>
-    <t>+ WriteFileTransactions(): void</t>
-  </si>
-  <si>
     <t>- content : T</t>
   </si>
   <si>
@@ -133,6 +118,33 @@
   </si>
   <si>
     <t>+ toString() : String</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>+ getContent() : String</t>
+  </si>
+  <si>
+    <t># amount : double</t>
+  </si>
+  <si>
+    <t># to : String</t>
+  </si>
+  <si>
+    <t># from : String</t>
+  </si>
+  <si>
+    <t>Content()</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>+ WriteFileContent(): void</t>
+  </si>
+  <si>
+    <t>+ ReadFileContent(): void</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +262,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -299,6 +314,132 @@
         <a:xfrm rot="16200000">
           <a:off x="3187065" y="4330065"/>
           <a:ext cx="887730" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30000"/>
+            <a:gd name="adj2" fmla="val 60000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1004503</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1309303</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Right 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715D6451-DA31-4B6A-B002-717255E4437F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5819032" y="4043474"/>
+          <a:ext cx="868730" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30000"/>
+            <a:gd name="adj2" fmla="val 60000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39473</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132563</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386B7775-426A-4765-89FB-87C9BCFA2D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13653416">
+          <a:off x="7100295" y="3992381"/>
+          <a:ext cx="954147" cy="389973"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -637,7 +778,7 @@
   <dimension ref="E2:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +788,7 @@
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="32.77734375" customWidth="1"/>
     <col min="9" max="10" width="2.109375" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11" x14ac:dyDescent="0.3">
@@ -660,10 +801,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="5:11" x14ac:dyDescent="0.3">
@@ -671,38 +809,26 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>26</v>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -710,18 +836,12 @@
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.3">
@@ -751,63 +871,102 @@
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="H19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="H21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="H28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="H30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E31" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="H31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E32" s="5" t="s">
         <v>11</v>
       </c>
@@ -834,7 +993,7 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4289EEC-785A-4481-8EC1-A1F5F3C93965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3A9EA-D951-4E25-B920-B1534C6FD2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>+ ReadFileContent(): void</t>
+  </si>
+  <si>
+    <t>+ getStringLog() : String</t>
+  </si>
+  <si>
+    <t>+ stringLog() : void</t>
   </si>
 </sst>
 </file>
@@ -290,13 +296,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1040130</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344930</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
-  <dimension ref="E2:K37"/>
+  <dimension ref="E2:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +903,7 @@
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>31</v>
@@ -905,27 +911,31 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E22" s="6" t="s">
-        <v>20</v>
+      <c r="E22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E27" s="1"/>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H28" s="7" t="s">
         <v>5</v>
       </c>
@@ -934,9 +944,7 @@
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="H29" s="7" t="s">
         <v>6</v>
       </c>
@@ -945,8 +953,8 @@
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="4" t="s">
-        <v>7</v>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>29</v>
@@ -956,8 +964,8 @@
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="5" t="s">
-        <v>12</v>
+      <c r="E31" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>27</v>
@@ -967,32 +975,47 @@
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="5" t="s">
-        <v>11</v>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="8" t="s">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3A9EA-D951-4E25-B920-B1534C6FD2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFD2A6-419A-47C9-8692-566A93D100DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
@@ -151,6 +151,90 @@
   </si>
   <si>
     <t>+ stringLog() : void</t>
+  </si>
+  <si>
+    <t>- c : Container</t>
+  </si>
+  <si>
+    <t>- LBLFrom : Jlabel</t>
+  </si>
+  <si>
+    <t>- LBLTo : JLabel</t>
+  </si>
+  <si>
+    <t>- LBLAmount : Jlabel</t>
+  </si>
+  <si>
+    <t>- TXTToName : JTextField</t>
+  </si>
+  <si>
+    <t>- TXTFromName : JTextField</t>
+  </si>
+  <si>
+    <t>- TXTamount : JTextField</t>
+  </si>
+  <si>
+    <t>- BTNconfirm : JButton</t>
+  </si>
+  <si>
+    <t>- BTNshowLog : JButton</t>
+  </si>
+  <si>
+    <t>- BTNclear : JButton</t>
+  </si>
+  <si>
+    <t>- BTNcloseLog : JButton</t>
+  </si>
+  <si>
+    <t>- LBLtype : JLabel</t>
+  </si>
+  <si>
+    <t>- BTNtransaction : JRadioButton</t>
+  </si>
+  <si>
+    <t>- BTNtransfer : JRadioButton</t>
+  </si>
+  <si>
+    <t>- tree : MTree</t>
+  </si>
+  <si>
+    <t>- history : JTextArea</t>
+  </si>
+  <si>
+    <t>- bg : ButtonGroup</t>
+  </si>
+  <si>
+    <t>- p0 : JPanel</t>
+  </si>
+  <si>
+    <t>- p1 : JPanel</t>
+  </si>
+  <si>
+    <t>- p2 : JPanel</t>
+  </si>
+  <si>
+    <t>- p3 : JPanel</t>
+  </si>
+  <si>
+    <t>- p4 : JPanel</t>
+  </si>
+  <si>
+    <t>- hashValue : JTextField</t>
+  </si>
+  <si>
+    <t>InputForm()</t>
+  </si>
+  <si>
+    <t>JFrame</t>
+  </si>
+  <si>
+    <t>+ actionPerformed : void</t>
+  </si>
+  <si>
+    <t>ActionListener</t>
+  </si>
+  <si>
+    <t>InputForm</t>
   </si>
 </sst>
 </file>
@@ -238,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +355,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,6 +533,132 @@
         <a:xfrm rot="13653416">
           <a:off x="7100295" y="3992381"/>
           <a:ext cx="954147" cy="389973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30000"/>
+            <a:gd name="adj2" fmla="val 60000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2225571</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593766</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Right 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9564FFA3-CE49-49A1-A1A4-CCDF449905BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="12685753" y="517510"/>
+          <a:ext cx="594818" cy="234594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30000"/>
+            <a:gd name="adj2" fmla="val 60000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98310</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arrow: Right 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105E894B-16C0-4F94-BE14-DB7D1B1D8EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12542790">
+          <a:off x="12785115" y="768663"/>
+          <a:ext cx="509714" cy="251653"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -781,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
-  <dimension ref="E2:K40"/>
+  <dimension ref="E2:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="77" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,155 +1008,242 @@
     <col min="8" max="8" width="32.77734375" customWidth="1"/>
     <col min="9" max="10" width="2.109375" customWidth="1"/>
     <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="13" max="13" width="32.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E24" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.3">
       <c r="H28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="H29" s="7" t="s">
         <v>6</v>
@@ -951,8 +1251,11 @@
       <c r="K29" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M29" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
@@ -962,8 +1265,11 @@
       <c r="K30" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M30" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
@@ -973,51 +1279,70 @@
       <c r="K31" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E35" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E36" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E37" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E38" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E39" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFD2A6-419A-47C9-8692-566A93D100DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A6AF9-27E0-4AB6-8A30-7732C0AA3E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Crytocurrency Transaction Merkle Tree Implementation</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>InputForm</t>
+  </si>
+  <si>
+    <t>- BTNfilecheck : JRadioButton</t>
+  </si>
+  <si>
+    <t>- TXTfileName : JTextField</t>
+  </si>
+  <si>
+    <t>- BTNfile : JButton</t>
   </si>
 </sst>
 </file>
@@ -322,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,9 +364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AD8AB-501F-4FD9-B007-DEE01EEF4F95}">
-  <dimension ref="E2:O43"/>
+  <dimension ref="E2:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="77" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.3">
@@ -1105,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.3">
@@ -1113,7 +1119,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.3">
@@ -1121,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.3">
@@ -1129,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.3">
@@ -1137,7 +1143,7 @@
         <v>25</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="5:13" hidden="1" x14ac:dyDescent="0.3">
@@ -1145,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
@@ -1155,7 +1161,9 @@
       <c r="H18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
@@ -1165,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
@@ -1176,7 +1184,7 @@
         <v>31</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
@@ -1187,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
@@ -1198,7 +1206,7 @@
         <v>33</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
@@ -1206,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
@@ -1214,22 +1222,22 @@
         <v>20</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
       <c r="M25" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.3">
       <c r="M26" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.3">
       <c r="M27" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.3">
@@ -1239,8 +1247,8 @@
       <c r="K28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>61</v>
+      <c r="M28" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
@@ -1251,8 +1259,8 @@
       <c r="K29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>62</v>
+      <c r="M29" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.3">
@@ -1265,8 +1273,8 @@
       <c r="K30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>64</v>
+      <c r="M30" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.3">
@@ -1279,19 +1287,25 @@
       <c r="K31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="1"/>
+      <c r="M31" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
@@ -1343,6 +1357,15 @@
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.3">
       <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MerkleTreeUML.xlsx
+++ b/MerkleTreeUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcpet\Documents\GitHub\MerkleTree314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A6AF9-27E0-4AB6-8A30-7732C0AA3E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFA90B8-AAD5-4F9E-9A92-9E0F369630E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1520D7AD-6953-4846-AF81-F4331C007D4C}"/>
   </bookViews>
@@ -237,13 +237,13 @@
     <t>InputForm</t>
   </si>
   <si>
-    <t>- BTNfilecheck : JRadioButton</t>
-  </si>
-  <si>
     <t>- TXTfileName : JTextField</t>
   </si>
   <si>
     <t>- BTNfile : JButton</t>
+  </si>
+  <si>
+    <t>- LBLFile : JRadioButton</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="E2:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="77" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
